--- a/app/static/csv/consent.xlsx
+++ b/app/static/csv/consent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB5A0C-6116-4BDC-A48B-D07742C27E48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F190B62-FDCA-4676-9D00-275F342FC084}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>p7</t>
   </si>
   <si>
-    <t>you will be compensated at the rate of 3.50 EUR per 30 min to a maximum of 80 EUR for online experiments. If you participate in both online and brain (EEG) experiments then the maximum compensation is 170 EUR at the end of the three years, but all compensations can be collected annually in person at the research location at Leiden University.</t>
-  </si>
-  <si>
     <t>h16</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>p9</t>
-  </si>
-  <si>
-    <t>Please read and provide your signature or check mark to the following statement only if you approve.</t>
   </si>
   <si>
     <t xml:space="preserve">Versie 1.0. maart 2020, Leiden  </t>
@@ -174,18 +168,9 @@
     <t>n als we expliciet een vergoeding via e-mail hebben bevestigd,</t>
   </si>
   <si>
-    <t xml:space="preserve">ontvangt u een vergoeding van 3,50 euro per 30 minuten tot een maximum van 80 euro voor online onderzoeken. Als u zowel deelneemt aan online onderzoeken als aan registratie van hersenactiviteit (EEG), dan is de maximale vergoeding 170 euro in drie jaar. Alle vergoedingen kunnen jaarlijks persoonlijk worden opgehaald op de onderzoekslocatie van de Universiteit Leiden.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naam en contactgegevens van de onderzoeker  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Arko Ghosh, Sectie Cognitieve Psychologie. agestudy@fsw.leidenuniv.nl   </t>
   </si>
   <si>
-    <t xml:space="preserve">Lees en onderteken (of geef een vinkje) alleen als u akkoord gaat met het onderstaande.  </t>
-  </si>
-  <si>
     <t>li1</t>
   </si>
   <si>
@@ -279,9 +264,6 @@
     <t>My submitted email address is retained for the</t>
   </si>
   <si>
-    <t>next three year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mijn ingediende e-mailadres wordt de </t>
   </si>
   <si>
@@ -304,6 +286,25 @@
   </si>
   <si>
     <t>Estimation of your time investment</t>
+  </si>
+  <si>
+    <t>you will be compensated at the rate of 3.50 EUR per 30 min to a maximum of 80 EUR for online experiments. If you participate in both online and brain (EEG) experiments then the maximum compensation is 170 EUR at the end of the three years. You can annually receive your compensation, however you must provide us with your bank details, full name and address and live in the Netherlands.</t>
+  </si>
+  <si>
+    <t>Naam en contactgegevens van de onderzoeker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontvangt u een vergoeding van 3,50 euro per 30 minuten tot een maximum van 80 euro voor online onderzoeken. Als u zowel deelneemt aan online onderzoeken als aan registratie van hersenactiviteit (EEG), dan is de maximale vergoeding 170 euro in drie jaar. U kunt uw vergoeding jaarlijks ontvangen, daarvoor hebben wij echter wel uw bankgegevens, volledige naam en adres nodig. Tevens moet u in Nederland wonen. 
+</t>
+  </si>
+  <si>
+    <t>Please read and provide your signature or check mark to the following statement during your registration only if you approve.</t>
+  </si>
+  <si>
+    <t>Lees alstublieft de volgende verklaring en plaats alleen uw handtekening of een vinkje bij uw registratie als u deze goedkeurt.</t>
+  </si>
+  <si>
+    <t>next three years</t>
   </si>
 </sst>
 </file>
@@ -1164,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1215,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1237,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1248,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1256,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1278,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1289,21 +1290,21 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1314,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1325,197 +1326,425 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="270.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
+    <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795265F2-266D-4586-819E-45E6D5B46E6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC6EA6-3305-40CD-97CE-314066B754E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8E4A-0AEB-48AA-BCC2-52A9E4FEE6AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/static/csv/consent.xlsx
+++ b/app/static/csv/consent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F190B62-FDCA-4676-9D00-275F342FC084}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ACA403-8E6E-4B3F-B39C-0F964C693AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consent" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>Als u ervoor kiest om te worden betaald voor deelname</t>
   </si>
   <si>
-    <t>n als we expliciet een vergoeding via e-mail hebben bevestigd,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arko Ghosh, Sectie Cognitieve Psychologie. agestudy@fsw.leidenuniv.nl   </t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>next three years</t>
+  </si>
+  <si>
+    <t>en als we expliciet een vergoeding via e-mail hebben bevestigd,</t>
   </si>
 </sst>
 </file>
@@ -1165,17 +1165,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1252,18 +1252,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1326,21 +1326,21 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="270.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="218" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1348,10 +1348,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1359,161 +1359,161 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>84</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1522,21 +1522,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
     <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
@@ -1714,24 +1699,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795265F2-266D-4586-819E-45E6D5B46E6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC6EA6-3305-40CD-97CE-314066B754E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8E4A-0AEB-48AA-BCC2-52A9E4FEE6AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1747,4 +1730,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC6EA6-3305-40CD-97CE-314066B754E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795265F2-266D-4586-819E-45E6D5B46E6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/static/csv/consent.xlsx
+++ b/app/static/csv/consent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ACA403-8E6E-4B3F-B39C-0F964C693AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34837D-EAB1-4CA8-97C1-C3375843AA3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
 gedurende de levensloop </t>
   </si>
   <si>
-    <t>Locatie: Sectie Cognitieve Psychologie, Universiteit Leiden</t>
-  </si>
-  <si>
     <t xml:space="preserve">Over dit onderzoek </t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Als u ervoor kiest om te worden betaald voor deelname</t>
   </si>
   <si>
-    <t xml:space="preserve">Arko Ghosh, Sectie Cognitieve Psychologie. agestudy@fsw.leidenuniv.nl   </t>
-  </si>
-  <si>
     <t>li1</t>
   </si>
   <si>
@@ -305,6 +299,12 @@
   </si>
   <si>
     <t>en als we expliciet een vergoeding via e-mail hebben bevestigd,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arko Ghosh, Afdeling Cognitieve Psychologie. agestudy@fsw.leidenuniv.nl   </t>
+  </si>
+  <si>
+    <t>Locatie: Afdeling Cognitieve Psychologie, Universiteit Leiden</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1238,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1249,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1257,10 +1257,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1279,10 +1279,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1290,10 +1290,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1304,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1315,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1326,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="218" x14ac:dyDescent="0.4">
@@ -1334,21 +1334,21 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1359,161 +1359,161 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1522,6 +1522,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D896C3867AA3F4EB0C0DE718E7AD517" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80024e68534539ed8e026f0b5c1f9e6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c478e2cf-1bd2-4bab-9bac-f508c15c8b21" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dc892a718835b0a8dea2591f8ec0eaf" ns3:_="">
     <xsd:import namespace="c478e2cf-1bd2-4bab-9bac-f508c15c8b21"/>
@@ -1699,22 +1714,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795265F2-266D-4586-819E-45E6D5B46E6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC6EA6-3305-40CD-97CE-314066B754E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0E8E4A-0AEB-48AA-BCC2-52A9E4FEE6AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1730,21 +1747,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC6EA6-3305-40CD-97CE-314066B754E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795265F2-266D-4586-819E-45E6D5B46E6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/static/csv/consent.xlsx
+++ b/app/static/csv/consent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rushkock\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34837D-EAB1-4CA8-97C1-C3375843AA3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A4E8A2-9B22-496B-BA52-A8C0AB156FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consent" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>tag</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>p1</t>
-  </si>
-  <si>
-    <t>Version. 1.0. March 2020, Leiden</t>
   </si>
   <si>
     <t>h12</t>
@@ -117,9 +114,6 @@
     <t>p9</t>
   </si>
   <si>
-    <t xml:space="preserve">Versie 1.0. maart 2020, Leiden  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Touchscreen-gedrag en hersenfuncties  
 gedurende de levensloop </t>
   </si>
@@ -186,85 +180,10 @@
     <t>li9</t>
   </si>
   <si>
-    <t xml:space="preserve">Ik heb de informatiebrief voor de deelnemers gelezen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik heb de gelegenheid gehad om vragen persoonlijk of per e-mail te stellen. Mijn vragen zijn adequaat beantwoord. Ik heb voldoende tijd gehad om te beslissen of ik wel of niet deelneem </t>
-  </si>
-  <si>
-    <t>Ik ben me ervan bewust dat deelname volledig vrijwillig is.</t>
-  </si>
-  <si>
-    <t>Ik weet dat ik op elk moment kan beslissen om niet deel te nemen of te stoppen. Daar hoef ik geen reden voor te geven.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanneer ik me terugtrek, kunnen mijn historische gegevens nog steeds worden gebruikt zoals beschreven in de informatiebrief, maar er worden geen verdere gegevens verzameld door de Universiteit Leiden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mijn gegevens worden gecodeerd en geanonimiseerd verwerkt en worden aan het einde van het onderzoek gearchiveerd.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De enige manier van communiceren is via e-mail en ik zal een geldig e-mailadres opgeven. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik geef toestemming om mijn cognitieve en gedragsgegevens te gebruiken voor de doeleinden die worden vermeld in de informatiebrief.  </t>
-  </si>
-  <si>
     <t>p11</t>
   </si>
   <si>
     <t xml:space="preserve">Ik stem in met deelname aan dit onderzoek.   </t>
-  </si>
-  <si>
-    <t>I have read the information letter for the participant.</t>
-  </si>
-  <si>
-    <t>I could ask additional questions in person or via email. My questions have been answered adequately. I have had sufficient time to decide whether or not I participate.</t>
-  </si>
-  <si>
-    <t>I am aware that participation is entirely voluntary.</t>
-  </si>
-  <si>
-    <t>I know that I can decide at any moment not to participate or to stop. I do not need to provide a reason for that.</t>
-  </si>
-  <si>
-    <t>When I withdraw, my historical data can still be used as described in the information letter but no further data will be collected by Leiden University.</t>
-  </si>
-  <si>
-    <t>My data are processed in a coded way and archived after anonymisation after end of the study.</t>
-  </si>
-  <si>
-    <t>I give consent to use my cognitive and behavioural data for the purposes that are mentioned in the information letter.</t>
-  </si>
-  <si>
-    <t>The only mode of communication is via email, and I will provide a valid email address.</t>
-  </si>
-  <si>
-    <t>I consent to participating in this study.</t>
-  </si>
-  <si>
-    <t>li7_b</t>
-  </si>
-  <si>
-    <t>li7_a</t>
-  </si>
-  <si>
-    <t>li7_c</t>
-  </si>
-  <si>
-    <t>My submitted email address is retained for the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mijn ingediende e-mailadres wordt de </t>
-  </si>
-  <si>
-    <t>komende drie jaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bewaard en ik kan via e-mail worden benaderd over dit onderzoek of de verlenging van dit onderzoek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and I can be contacted regarding this study or the renewal of this study via email.</t>
   </si>
   <si>
     <t>button1</t>
@@ -292,12 +211,6 @@
     <t>Please read and provide your signature or check mark to the following statement during your registration only if you approve.</t>
   </si>
   <si>
-    <t>Lees alstublieft de volgende verklaring en plaats alleen uw handtekening of een vinkje bij uw registratie als u deze goedkeurt.</t>
-  </si>
-  <si>
-    <t>next three years</t>
-  </si>
-  <si>
     <t>en als we expliciet een vergoeding via e-mail hebben bevestigd,</t>
   </si>
   <si>
@@ -305,13 +218,109 @@
   </si>
   <si>
     <t>Locatie: Afdeling Cognitieve Psychologie, Universiteit Leiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have read the information letter.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was able to ask questions. If I had questions, they were answered to my satisfaction.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had enough time to decide if I wanted to take part.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know who to contact in case of any complaints.  </t>
+  </si>
+  <si>
+    <t>I know that taking part is voluntary. I also know that I can decide at any time not to take part in the study or to stop taking part in it. I do not have to explain why, and stopping will not have negative consequences for me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know that the research data will be safely stored (coded or anonymized) for at least 10 years.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I understand that the researchers may share with other researchers my anonymous/de-identified research data that cannot be traced back to me. </t>
+  </si>
+  <si>
+    <t>My submitted email address is retained for the next 10 years (disconnected from research data) and I can be contacted regarding this study or the renewal of this study via email.</t>
+  </si>
+  <si>
+    <t>The only mode of communication is via email, and I will provide a valid email address</t>
+  </si>
+  <si>
+    <t>I consent to my participation in this study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only for participants who participate for course credits, please check one of the following boxes: </t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I give consent for my research data to be collected, stored, processed, and published as described in the information letter. </t>
+  </si>
+  <si>
+    <t>I give consent for my research data to be collected, but I do not give consent to store, process, or publish as described in the information letter.</t>
+  </si>
+  <si>
+    <t>check_2</t>
+  </si>
+  <si>
+    <t>check_1</t>
+  </si>
+  <si>
+    <t>li7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik ben gevraagd toestemming te geven om deel te nemen aan de studie 'Gedrag op het aanraakscherm en hersenfuncties gedurende het hele leven'. Ik verklaar het volgende: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik heb de informatiebrief gelezen </t>
+  </si>
+  <si>
+    <t>Ik kon vragen stellen. Als ik vragen had, zijn deze naar mijn tevredenheid beantwoord.</t>
+  </si>
+  <si>
+    <t>Ik had voldoende tijd om te beslissen of ik wilde deelnemen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik weet wie ik moet contacteren in geval van klachten. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik weet dat deelname vrijwillig is. Ik weet ook dat ik op elk moment kan besluiten om niet deel te nemen aan de studie of om ermee te stoppen. Ik hoef niet uit te leggen waarom, en stoppen zal geen negatieve gevolgen voor mij hebben. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik weet dat de onderzoeksgegevens veilig zullen worden opgeslagen (gecodeerd of geanonimiseerd) gedurende ten minste 10 jaar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik begrijp dat de onderzoekers mijn anonieme/geanonimiseerde onderzoeksgegevens die niet naar mij kunnen worden herleid, kunnen delen met andere onderzoekers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mijn ingediende e-mailadres wordt gedurende de komende 10 jaar bewaard (losgekoppeld van onderzoeksgegevens) en ik kan worden gecontacteerd over deze studie of de vernieuwing ervan via e-mail. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De enige vorm van communicatie is via e-mail, en ik zal een geldig e-mailadres verstrekken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alleen voor deelnemers die deelnemen voor studiepunten, graag een van de volgende vakjes aanvinken: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik geef toestemming voor het verzamelen, opslaan, verwerken en publiceren van mijn onderzoeksgegevens zoals beschreven in de informatieve brief. </t>
+  </si>
+  <si>
+    <t>Ik geef toestemming voor het verzamelen van mijn onderzoeksgegevens, maar ik geef geen toestemming voor opslag, verwerking of publicatie zoals beschreven in de informatieve brief.</t>
+  </si>
+  <si>
+    <t>Version. 2.0. November 2023, Leiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versie 2.0. November 2023, Leiden  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +464,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1163,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1202,274 +1217,274 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="218" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
         <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -1477,63 +1492,75 @@
         <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1715,18 +1742,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795265F2-266D-4586-819E-45E6D5B46E6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC6EA6-3305-40CD-97CE-314066B754E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEC6EA6-3305-40CD-97CE-314066B754E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795265F2-266D-4586-819E-45E6D5B46E6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
